--- a/public/template/4 Transport Babin/1 SPJ Babinsa dan Babinkatibnas.xlsx
+++ b/public/template/4 Transport Babin/1 SPJ Babinsa dan Babinkatibnas.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\administrasi-fkp\public\template\4 Transport Babin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CAB3FD2-A756-4B2E-B18C-60B6E711902F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Babinsa_Babinkambtibmas" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
   <si>
     <t>Program</t>
   </si>
@@ -197,11 +196,17 @@
   <si>
     <t xml:space="preserve">: </t>
   </si>
+  <si>
+    <t>Polsek</t>
+  </si>
+  <si>
+    <t>Koramil</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@"/>
   </numFmts>
@@ -504,7 +509,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -716,11 +721,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="A15" sqref="A15:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1184,7 +1189,9 @@
         <v>33</v>
       </c>
       <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
+      <c r="F13" s="8" t="s">
+        <v>54</v>
+      </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8" t="s">
         <v>21</v>
@@ -1227,7 +1234,9 @@
         <v>34</v>
       </c>
       <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
+      <c r="F14" s="8" t="s">
+        <v>53</v>
+      </c>
       <c r="G14" s="8"/>
       <c r="H14" s="8" t="s">
         <v>21</v>
